--- a/jpcore-r4/feature/swg5-fix_medication_identifier/CodeSystem-jp-medication-route-hl70162-cs.xlsx
+++ b/jpcore-r4/feature/swg5-fix_medication_identifier/CodeSystem-jp-medication-route-hl70162-cs.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>urn:oid:2.16.840.1.113883.3.1937.777.10.5.162</t>
+    <t>http://jpfhir.jp/fhir/core/CodeSystem/route-codes</t>
   </si>
   <si>
     <t>Identifier</t>
